--- a/Documentation/Task-timeline.xlsx
+++ b/Documentation/Task-timeline.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\WB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Visual Studio 2017\Projects\wb-payment\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Requirement Analysis &amp; Design</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t xml:space="preserve">Initial Customer Requirement </t>
+  </si>
+  <si>
+    <t>Integration and system testing</t>
+  </si>
+  <si>
+    <t>Define Functional Specification Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Complete System Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   User Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Bug fixing, Minor changes</t>
+  </si>
+  <si>
+    <t>Warranty 1 Year</t>
   </si>
 </sst>
 </file>
@@ -165,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -180,6 +198,12 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,9 +484,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A23"/>
+  <dimension ref="A2:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -492,93 +516,123 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
